--- a/Smoothening Part-3/three_mean_trailing.xlsx
+++ b/Smoothening Part-3/three_mean_trailing.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Campus_X_TS\Smoothing_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinaymittal/Monash/Summer_Vacation/GitHub/Time-Series-Analysis/Smoothening Part-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C319CFBB-F545-4854-BB62-28F3D08C3A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF99822-96F7-7A43-80F6-34C6EA5EAE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0D27CEEA-6F44-4411-8E33-9EA62FBC4482}"/>
+    <workbookView xWindow="2360" yWindow="-19640" windowWidth="28800" windowHeight="19640" activeTab="3" xr2:uid="{0D27CEEA-6F44-4411-8E33-9EA62FBC4482}"/>
   </bookViews>
   <sheets>
     <sheet name="centered" sheetId="1" r:id="rId1"/>
-    <sheet name="trailing" sheetId="2" r:id="rId2"/>
+    <sheet name="Practice Centered" sheetId="4" r:id="rId2"/>
+    <sheet name="trailing" sheetId="2" r:id="rId3"/>
+    <sheet name="Practice trailing" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Month</t>
   </si>
@@ -89,6 +102,24 @@
   </si>
   <si>
     <t>MA(3)</t>
+  </si>
+  <si>
+    <t>3 Moving Checking</t>
+  </si>
+  <si>
+    <t>5 Moving Checking</t>
+  </si>
+  <si>
+    <t>checking Naïve</t>
+  </si>
+  <si>
+    <t>checking MA(2)</t>
+  </si>
+  <si>
+    <t>checking MA(3)</t>
+  </si>
+  <si>
+    <t>This is wrong , the correct one is in the Practice trailing</t>
   </si>
 </sst>
 </file>
@@ -165,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -174,6 +205,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +228,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -794,7 +828,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -846,7 +880,600 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>trailing!$B$1</c:f>
+              <c:f>'Practice Centered'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Births </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practice Centered'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febuary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practice Centered'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7D4-4441-BDD2-F56198B67A4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practice Centered'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3- Moving </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practice Centered'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febuary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practice Centered'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>9.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7D4-4441-BDD2-F56198B67A4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practice Centered'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5- Moving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practice Centered'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febuary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practice Centered'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E7D4-4441-BDD2-F56198B67A4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="560092240"/>
+        <c:axId val="560094000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="560092240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560094000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560094000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560092240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>trailing!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -869,7 +1496,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>trailing!$A$2:$A$25</c:f>
+              <c:f>trailing!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="24"/>
@@ -950,7 +1577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>trailing!$B$2:$B$25</c:f>
+              <c:f>trailing!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1023,7 +1650,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>trailing!$C$1</c:f>
+              <c:f>trailing!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1046,7 +1673,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>trailing!$A$2:$A$25</c:f>
+              <c:f>trailing!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1127,7 +1754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>trailing!$C$2:$C$25</c:f>
+              <c:f>trailing!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1215,7 +1842,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>trailing!$D$1</c:f>
+              <c:f>trailing!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1238,7 +1865,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>trailing!$A$2:$A$25</c:f>
+              <c:f>trailing!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1319,7 +1946,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>trailing!$D$2:$D$25</c:f>
+              <c:f>trailing!$D$3:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1404,7 +2031,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>trailing!$E$1</c:f>
+              <c:f>trailing!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1427,7 +2054,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>trailing!$A$2:$A$25</c:f>
+              <c:f>trailing!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1508,7 +2135,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>trailing!$E$2:$E$25</c:f>
+              <c:f>trailing!$E$3:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1786,6 +2413,1001 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practice trailing'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Practice trailing'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practice trailing'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFBA-D049-84CA-1E767EDD07F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practice trailing'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Practice trailing'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practice trailing'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="1">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFBA-D049-84CA-1E767EDD07F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practice trailing'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MA(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Practice trailing'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practice trailing'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="2">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.8025000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.838750000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.8206249999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.8296875000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFBA-D049-84CA-1E767EDD07F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practice trailing'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MA(3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Practice trailing'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practice trailing'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="3">
+                  <c:v>10.036666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3466666666666658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4799999999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7466666666666679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1033333333333335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6866666666666674</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.8666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6433333333333326</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6233333333333331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.6911111111111108</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.774814814814814</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.6930864197530848</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.7196707818930026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.7291906721536332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AFBA-D049-84CA-1E767EDD07F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="55056095"/>
+        <c:axId val="55327535"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="55056095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55327535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="55327535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55056095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1866,6 +3488,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2383,6 +4085,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2949,8 +5683,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -2969,7 +5703,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -3014,8 +5748,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
@@ -3034,7 +5768,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Ink 3">
@@ -3079,8 +5813,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -3099,7 +5833,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -3136,17 +5870,123 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>483000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46886E17-912A-354A-A80A-A2BA0713BCE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1092600" y="530280"/>
+            <a:ext cx="4680" cy="2880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0FFABA-AD21-7242-D525-AD522E5B4E23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1083600" y="521280"/>
+              <a:ext cx="22320" cy="20520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7AD237-8CE9-6EA6-385B-CFC076661510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3176,17 +6016,17 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>380520</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>128200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>384480</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>130000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -3205,7 +6045,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -3241,17 +6081,17 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>370373</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>70679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>383333</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>85079</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Ink 14">
@@ -3270,7 +6110,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Ink 14">
@@ -3306,17 +6146,17 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361035</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>108752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>367155</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>109832</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -3335,7 +6175,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -3371,17 +6211,17 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>330600</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>92270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>418440</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>128440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Ink 16">
@@ -3400,7 +6240,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Ink 16">
@@ -3436,17 +6276,17 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>585840</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>87040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>6840</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>105760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Ink 17">
@@ -3465,7 +6305,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Ink 17">
@@ -3501,17 +6341,17 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>554760</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>119820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>112920</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>5680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Ink 21">
@@ -3530,7 +6370,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Ink 21">
@@ -3565,6 +6405,112 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>384480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC573EC4-533B-2B4E-AC17-E9E6B487ACC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="380520" y="308880"/>
+            <a:ext cx="3960" cy="1800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BCACEB-9FE0-7D75-9A9D-D04766D617DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="371520" y="299880"/>
+              <a:ext cx="21600" cy="19440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2CA571-01DF-9901-C057-82EDB45A3D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -3589,6 +6535,62 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">12 7 736,'-2'0'1040,"0"-1"-196,0 1-196,0 0-204,0-2-208,0 0-236,2 0-912</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-05-05T15:16:44.337"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">266 99 608,'0'0'3668,"-13"12"-1103,-38 203-1997,46-176-785,2 0 0,3-1 0,8 62 0,1-53-3189,-9-42 1907</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="343.92">555 1 1428,'0'66'3931,"14"238"-1763,33-11-3294,-47-290 1007,1 3-232,0-1 1,-1 0-1,2 0 0,-2 1 1,0-1-1,-2 0 0,1 0 1,1 1-1,-1-1 1,-2 0-1,-1 7 0,-5-7-1183</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="743.64">0 433 516,'0'0'4502,"13"25"-3219,-2-2-1040,0-1 1,3 1-1,20 24 0,-27-38-222,1 1 0,2-1 0,-1 0 1,1-1-1,-1 0 0,3 0 0,-1-1 0,0 0 0,17 8 0,-21-12-15,2 0 1,-1 0-1,-1 0 0,2-1 0,-1 0 0,0-1 0,2 1 0,-1-1 0,-1 0 0,1-1 0,0 0 0,0 0 0,-1 0 1,1-1-1,13-1 0,-11-1 12,1 1 1,-1-1-1,0-2 0,0 1 1,1 0-1,-3 0 1,1-1-1,0-1 0,0 0 1,10-8-1,-2 1-264,-3-1 0,1-1-1,-2 1 1,0-1 0,-1-2-1,-1 1 1,-2-1 0,0 1-1,0-1 1,7-28 0,4-30-2928,-11 35 1376</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-07-18T00:25:30.814"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 356,'10'4'5060</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3662,6 +6664,33 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-07-18T00:12:36.900"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 7 736,'-2'0'1040,"0"-1"-196,0 1-196,0 0-204,0-2-208,0 0-236,2 0-912</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2024-05-05T15:14:54.371"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -3673,7 +6702,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3700,7 +6729,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3727,7 +6756,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3754,7 +6783,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3777,43 +6806,14 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 51 60,'0'-8'4654,"0"8"-4637,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0-12,40-21 7,-24 16 27,-14 4-387,0 1 0,0 0 0,0-1 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,0 0 0,2-2 0,-3 0-1145</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-05-05T15:16:44.337"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">189 94 608,'0'0'3668,"-9"12"-1103,-27 192-1997,32-167-785,2 0 0,2 0 0,6 58 0,0-51-3189,-6-39 1907</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="343.92">395 1 1428,'0'63'3931,"10"226"-1763,23-10-3294,-33-276 1007,1 2-232,0 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,-1 0-1,-1 6 0,-3-6-1183</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="743.64">0 412 516,'0'0'4502,"9"24"-3219,-1-2-1040,0-1 1,2 1-1,14 22 0,-19-35-222,1 0 0,1 0 0,-1-1 1,1 0-1,0 0 0,1-1 0,0 0 0,0 0 0,12 7 0,-15-11-15,1 0 1,0-1-1,-1 1 0,1-1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,1 0 0,-1 0 0,0 0 1,0-1-1,10-1 0,-8-1 12,0 1 1,0-1-1,0-1 0,0 0 1,0 0-1,-1 0 1,0-1-1,0 0 0,0-1 1,7-7-1,-1 0-264,-2 0 0,0-1-1,-1 0 1,0 0 0,-1-2-1,0 1 1,-2-1 0,0 0-1,0 0 1,5-27 0,3-28-2928,-8 33 1376</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 51 60,'0'-8'4654,"0"8"-4637,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-3 0 0,3 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,3 0 0,-3 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,4 0 1,-4 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,3 0 0,-3 0-12,129-21 7,-78 16 27,-44 4-387,-1 1 0,1 0 0,-1-1 0,1 0-1,-4 1 1,3-1 0,1 0 0,-1 0 0,1 0 0,6-2 0,-10 0-1145</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3851,7 +6851,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3957,7 +6957,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4099,7 +7099,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4110,17 +7110,17 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4134,7 +7134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4144,7 +7144,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4157,7 +7157,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4173,7 +7173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4189,7 +7189,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4205,7 +7205,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4221,7 +7221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -4237,7 +7237,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -4253,7 +7253,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -4269,7 +7269,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4285,7 +7285,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4298,7 +7298,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -4316,295 +7316,576 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455D134E-8B63-4B83-BCD7-C666DCED12BF}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C0091A-E59D-4240-B193-7F96AB9833C9}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8">
+        <f>AVERAGE(B2:B4)</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <f>C3=centered!C3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8">
+        <f>AVERAGE(B3:B5)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <f>C4=centered!C4</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <f>AVERAGE(B2:B6)</f>
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <f>E4=centered!D4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:C12" si="0">AVERAGE(B4:B6)</f>
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <f>C5=centered!C5</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E11" si="1">AVERAGE(B3:B7)</f>
+        <v>12.6</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <f>E5=centered!D5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <f>C6=centered!C6</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <f>E6=centered!D6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <f>C7=centered!C7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <f>E7=centered!D7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <f>C8=centered!C8</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <f>E8=centered!D8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <f>C9=centered!C9</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>11.4</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <f>E9=centered!D9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <f>C10=centered!C10</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <f>E10=centered!D10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <f>C11=centered!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <f>E11=centered!D11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <f>C12=centered!C12</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455D134E-8B63-4B83-BCD7-C666DCED12BF}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>35065</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>9.75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>35096</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>10.09</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>9.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>35125</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>10.27</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>10.09</v>
-      </c>
-      <c r="D4">
-        <f>AVERAGE(B2:B3)</f>
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>35156</v>
-      </c>
-      <c r="B5">
-        <v>8.98</v>
-      </c>
-      <c r="C5">
-        <v>10.27</v>
       </c>
       <c r="D5">
         <f>AVERAGE(B3:B4)</f>
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>35156</v>
+      </c>
+      <c r="B6">
+        <v>8.98</v>
+      </c>
+      <c r="C6">
+        <v>10.27</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(B4:B5)</f>
         <v>10.18</v>
       </c>
-      <c r="E5">
-        <f>AVERAGE(B2:B4)</f>
+      <c r="E6">
+        <f>AVERAGE(B3:B5)</f>
         <v>10.036666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>35186</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>8.7899999999999991</v>
-      </c>
-      <c r="C6">
-        <f>B5</f>
-        <v>8.98</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D19" si="0">AVERAGE(B4:B5)</f>
-        <v>9.625</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E19" si="1">AVERAGE(B3:B5)</f>
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>35217</v>
-      </c>
-      <c r="B7">
-        <v>8.23</v>
       </c>
       <c r="C7">
         <f>B6</f>
+        <v>8.98</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D20" si="0">AVERAGE(B5:B6)</f>
+        <v>9.625</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E20" si="1">AVERAGE(B4:B6)</f>
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>35217</v>
+      </c>
+      <c r="B8">
+        <v>8.23</v>
+      </c>
+      <c r="C8">
+        <f>B7</f>
         <v>8.7899999999999991</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>8.8849999999999998</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>9.3466666666666658</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>35247</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>8.24</v>
       </c>
-      <c r="C8">
-        <f t="shared" ref="C8:C19" si="2">B7</f>
+      <c r="C9">
+        <f t="shared" ref="C9:C19" si="2">B8</f>
         <v>8.23</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>8.51</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>35278</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>8.9700000000000006</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="2"/>
         <v>8.24</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>8.2349999999999994</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>8.42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>35309</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>9.0299999999999994</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="2"/>
         <v>8.9700000000000006</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>8.6050000000000004</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>8.4799999999999986</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>35339</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>9.31</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="2"/>
         <v>9.0299999999999994</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>8.7466666666666679</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>35370</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>10.25</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f t="shared" si="2"/>
         <v>9.31</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>9.17</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>9.1033333333333335</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>35400</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>9.5</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>9.7800000000000011</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>35431</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>10.050000000000001</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>9.875</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>9.6866666666666674</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>35462</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>9.5</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="2"/>
         <v>10.050000000000001</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>9.7750000000000004</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>9.9333333333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>35490</v>
-      </c>
-      <c r="B16">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -4612,19 +7893,19 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>9.6833333333333336</v>
+        <v>9.9333333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>35521</v>
+        <v>35490</v>
       </c>
       <c r="B17">
-        <v>9.3800000000000008</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>10.050000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -4632,10 +7913,683 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
+        <v>9.6833333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>35521</v>
+      </c>
+      <c r="B18">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>9.7750000000000004</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
         <v>9.8666666666666671</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>35551</v>
+      </c>
+      <c r="B19">
+        <v>9.44</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>9.7149999999999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>9.6433333333333326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>35582</v>
+      </c>
+      <c r="B20">
+        <v>10.02</v>
+      </c>
+      <c r="C20">
+        <f>B19</f>
+        <v>9.44</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>9.41</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>9.6233333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>35612</v>
+      </c>
+      <c r="C21">
+        <f>B20</f>
+        <v>10.02</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(B19:B20)</f>
+        <v>9.73</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(B18:B20)</f>
+        <v>9.6133333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>35643</v>
+      </c>
+      <c r="C22">
+        <f>B20</f>
+        <v>10.02</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(B20:D21)</f>
+        <v>9.7240000000000002</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(B19:B20,E21)</f>
+        <v>9.6911111111111108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>35674</v>
+      </c>
+      <c r="C23">
+        <f>C22</f>
+        <v>10.02</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(D21:D22)</f>
+        <v>9.7270000000000003</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(E20:E22)</f>
+        <v>9.6425925925925924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>35704</v>
+      </c>
+      <c r="C24">
+        <f>C23</f>
+        <v>10.02</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D26" si="3">AVERAGE(D22:D23)</f>
+        <v>9.7255000000000003</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE(E21:E23)</f>
+        <v>9.6490123456790116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>35735</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C26" si="4">C24</f>
+        <v>10.02</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>9.7262500000000003</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E26" si="5">AVERAGE(E22:E24)</f>
+        <v>9.6609053497942394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>35765</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>10.02</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>9.7258750000000003</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>9.6508367626886145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CCC93B-D4DB-7E4D-AA0A-EA402AA1C36A}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>35065</v>
+      </c>
+      <c r="B2">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>35096</v>
+      </c>
+      <c r="B3">
+        <v>10.09</v>
+      </c>
+      <c r="C3">
+        <f>B2</f>
+        <v>9.75</v>
+      </c>
+      <c r="D3" t="b">
+        <f>C3=trailing!C4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>35125</v>
+      </c>
+      <c r="B4">
+        <v>10.27</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C20" si="0">B3</f>
+        <v>10.09</v>
+      </c>
+      <c r="D4" t="b">
+        <f>C4=trailing!C5</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E21" si="1">AVERAGE(B2:B3)</f>
+        <v>9.92</v>
+      </c>
+      <c r="F4" t="b">
+        <f>E4=trailing!D5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>35156</v>
+      </c>
+      <c r="B5">
+        <v>8.98</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>10.27</v>
+      </c>
+      <c r="D5" t="b">
+        <f>C5=trailing!C6</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>10.18</v>
+      </c>
+      <c r="F5" t="b">
+        <f>E5=trailing!D6</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G22" si="2">AVERAGE(B2:B4)</f>
+        <v>10.036666666666667</v>
+      </c>
+      <c r="H5" t="b">
+        <f>G5=trailing!E6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>35186</v>
+      </c>
+      <c r="B6">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8.98</v>
+      </c>
+      <c r="D6" t="b">
+        <f>C6=trailing!C7</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>9.625</v>
+      </c>
+      <c r="F6" t="b">
+        <f>E6=trailing!D7</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="H6" t="b">
+        <f>G6=trailing!E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>35217</v>
+      </c>
+      <c r="B7">
+        <v>8.23</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D7" t="b">
+        <f>C7=trailing!C8</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="F7" t="b">
+        <f>E7=trailing!D8</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>9.3466666666666658</v>
+      </c>
+      <c r="H7" t="b">
+        <f>G7=trailing!E8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>35247</v>
+      </c>
+      <c r="B8">
+        <v>8.24</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8.23</v>
+      </c>
+      <c r="D8" t="b">
+        <f>C8=trailing!C9</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>8.51</v>
+      </c>
+      <c r="F8" t="b">
+        <f>E8=trailing!D9</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="H8" t="b">
+        <f>G8=trailing!E9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>35278</v>
+      </c>
+      <c r="B9">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>8.24</v>
+      </c>
+      <c r="D9" t="b">
+        <f>C9=trailing!C10</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>8.2349999999999994</v>
+      </c>
+      <c r="F9" t="b">
+        <f>E9=trailing!D10</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>8.42</v>
+      </c>
+      <c r="H9" t="b">
+        <f>G9=trailing!E10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>35309</v>
+      </c>
+      <c r="B10">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D10" t="b">
+        <f>C10=trailing!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>8.6050000000000004</v>
+      </c>
+      <c r="F10" t="b">
+        <f>E10=trailing!D11</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>8.4799999999999986</v>
+      </c>
+      <c r="H10" t="b">
+        <f>G10=trailing!E11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>35339</v>
+      </c>
+      <c r="B11">
+        <v>9.31</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D11" t="b">
+        <f>C11=trailing!C12</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F11" t="b">
+        <f>E11=trailing!D12</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>8.7466666666666679</v>
+      </c>
+      <c r="H11" t="b">
+        <f>G11=trailing!E12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>35370</v>
+      </c>
+      <c r="B12">
+        <v>10.25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>9.31</v>
+      </c>
+      <c r="D12" t="b">
+        <f>C12=trailing!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>9.17</v>
+      </c>
+      <c r="F12" t="b">
+        <f>E12=trailing!D13</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>9.1033333333333335</v>
+      </c>
+      <c r="H12" t="b">
+        <f>G12=trailing!E13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>35400</v>
+      </c>
+      <c r="B13">
+        <v>9.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>10.25</v>
+      </c>
+      <c r="D13" t="b">
+        <f>C13=trailing!C14</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>9.7800000000000011</v>
+      </c>
+      <c r="F13" t="b">
+        <f>E13=trailing!D14</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="H13" t="b">
+        <f>G13=trailing!E14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>35431</v>
+      </c>
+      <c r="B14">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="D14" t="b">
+        <f>C14=trailing!C15</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>9.875</v>
+      </c>
+      <c r="F14" t="b">
+        <f>E14=trailing!D15</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>9.6866666666666674</v>
+      </c>
+      <c r="H14" t="b">
+        <f>G14=trailing!E15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>35462</v>
+      </c>
+      <c r="B15">
+        <v>9.5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D15" t="b">
+        <f>C15=trailing!C16</f>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>9.7750000000000004</v>
+      </c>
+      <c r="F15" t="b">
+        <f>E15=trailing!D16</f>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>9.9333333333333336</v>
+      </c>
+      <c r="H15" t="b">
+        <f>G15=trailing!E16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>35490</v>
+      </c>
+      <c r="B16">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="D16" t="b">
+        <f>C16=trailing!C17</f>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>9.7750000000000004</v>
+      </c>
+      <c r="F16" t="b">
+        <f>E16=trailing!D17</f>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>9.6833333333333336</v>
+      </c>
+      <c r="H16" t="b">
+        <f>G16=trailing!E17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>35521</v>
+      </c>
+      <c r="B17">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D17" t="b">
+        <f>C17=trailing!C18</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>9.7750000000000004</v>
+      </c>
+      <c r="F17" t="b">
+        <f>E17=trailing!D18</f>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="H17" t="b">
+        <f>G17=trailing!E18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>35551</v>
       </c>
@@ -4643,19 +8597,31 @@
         <v>9.44</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.3800000000000008</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>9.7149999999999999</v>
+      <c r="D18" t="b">
+        <f>C18=trailing!C19</f>
+        <v>1</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
+        <v>9.7149999999999999</v>
+      </c>
+      <c r="F18" t="b">
+        <f>E18=trailing!D19</f>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
         <v>9.6433333333333326</v>
       </c>
+      <c r="H18" t="b">
+        <f>G18=trailing!E19</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>35582</v>
       </c>
@@ -4663,87 +8629,147 @@
         <v>10.02</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.44</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>9.41</v>
+      <c r="D19" t="b">
+        <f>C19=trailing!C20</f>
+        <v>1</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
+        <v>9.41</v>
+      </c>
+      <c r="F19" t="b">
+        <f>E19=trailing!D20</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
         <v>9.6233333333333331</v>
       </c>
+      <c r="H19" t="b">
+        <f>G19=trailing!E20</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>35612</v>
       </c>
       <c r="C20">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>10.02</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="b">
+        <f>C20=trailing!C21</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
         <f>AVERAGE(B18:B19)</f>
         <v>9.73</v>
       </c>
-      <c r="E20">
+      <c r="F20" t="b">
+        <f>E20=trailing!D21</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
         <f>AVERAGE(B17:B19)</f>
         <v>9.6133333333333333</v>
       </c>
+      <c r="H20" t="b">
+        <f>G20=trailing!E21</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>35643</v>
       </c>
       <c r="C21">
-        <f>B19</f>
+        <f>C20</f>
         <v>10.02</v>
       </c>
-      <c r="D21">
-        <f>AVERAGE(B19:D20)</f>
-        <v>9.7240000000000002</v>
+      <c r="D21" t="b">
+        <f>C21=trailing!C22</f>
+        <v>1</v>
       </c>
       <c r="E21">
-        <f>AVERAGE(B18:B19,E20)</f>
+        <f>AVERAGE(B19,E20)</f>
+        <v>9.875</v>
+      </c>
+      <c r="F21" t="b">
+        <f>E21=trailing!D22</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(G20,B19,B18)</f>
         <v>9.6911111111111108</v>
       </c>
+      <c r="H21" t="b">
+        <f>G21=trailing!E22</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>35674</v>
       </c>
       <c r="C22">
-        <f>C21</f>
+        <f t="shared" ref="C22:C25" si="3">C21</f>
         <v>10.02</v>
       </c>
-      <c r="D22">
-        <f>AVERAGE(D20:D21)</f>
-        <v>9.7270000000000003</v>
+      <c r="D22" t="b">
+        <f>C22=trailing!C23</f>
+        <v>1</v>
       </c>
       <c r="E22">
-        <f>AVERAGE(E19:E21)</f>
-        <v>9.6425925925925924</v>
+        <f>AVERAGE(E20:E21)</f>
+        <v>9.8025000000000002</v>
+      </c>
+      <c r="F22" t="b">
+        <f>E22=trailing!D23</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(G20:G21,B19)</f>
+        <v>9.774814814814814</v>
+      </c>
+      <c r="H22" t="b">
+        <f>G22=trailing!E23</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>35704</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C25" si="3">C22</f>
+        <f t="shared" si="3"/>
         <v>10.02</v>
       </c>
-      <c r="D23">
-        <f t="shared" ref="D23:D25" si="4">AVERAGE(D21:D22)</f>
-        <v>9.7255000000000003</v>
+      <c r="D23" t="b">
+        <f>C23=trailing!C24</f>
+        <v>1</v>
       </c>
       <c r="E23">
-        <f>AVERAGE(E20:E22)</f>
-        <v>9.6490123456790116</v>
+        <f t="shared" ref="E23:E25" si="4">AVERAGE(E21:E22)</f>
+        <v>9.838750000000001</v>
+      </c>
+      <c r="F23" t="b">
+        <f>E23=trailing!D24</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(G20:G22)</f>
+        <v>9.6930864197530848</v>
+      </c>
+      <c r="H23" t="b">
+        <f>G23=trailing!E24</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>35735</v>
       </c>
@@ -4751,16 +8777,28 @@
         <f t="shared" si="3"/>
         <v>10.02</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="b">
+        <f>C24=trailing!C25</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="4"/>
-        <v>9.7262500000000003</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ref="E24:E25" si="5">AVERAGE(E21:E23)</f>
-        <v>9.6609053497942394</v>
+        <v>9.8206249999999997</v>
+      </c>
+      <c r="F24" t="b">
+        <f>E24=trailing!D25</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>AVERAGE(G21:G23)</f>
+        <v>9.7196707818930026</v>
+      </c>
+      <c r="H24" t="b">
+        <f>G24=trailing!E25</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>35765</v>
       </c>
@@ -4768,13 +8806,25 @@
         <f t="shared" si="3"/>
         <v>10.02</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="b">
+        <f>C25=trailing!C26</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="4"/>
-        <v>9.7258750000000003</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="5"/>
-        <v>9.6508367626886145</v>
+        <v>9.8296875000000004</v>
+      </c>
+      <c r="F25" t="b">
+        <f>E25=trailing!D26</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(G22:G24)</f>
+        <v>9.7291906721536332</v>
+      </c>
+      <c r="H25" t="b">
+        <f>G25=trailing!E26</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
